--- a/data/weight.xlsx
+++ b/data/weight.xlsx
@@ -1,21 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My_R\practical_stats_med-r\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1936B12-1264-4BF4-83DB-20B045837FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>discharge_weight</t>
+  </si>
+  <si>
+    <t>birth_weight</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,13 +80,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -107,7 +132,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -141,6 +166,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -175,9 +201,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -350,26 +377,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.77734375" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>birth_weight</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>discharge_weight</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>3250</v>
       </c>
@@ -377,7 +406,7 @@
         <v>3220</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2680</v>
       </c>
@@ -385,7 +414,7 @@
         <v>2640</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2960</v>
       </c>
@@ -393,7 +422,7 @@
         <v>2940</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3420</v>
       </c>
@@ -401,7 +430,7 @@
         <v>3350</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3210</v>
       </c>
@@ -409,7 +438,7 @@
         <v>3140</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2740</v>
       </c>
@@ -417,7 +446,7 @@
         <v>2730</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3250</v>
       </c>
@@ -425,7 +454,7 @@
         <v>3220</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3170</v>
       </c>
@@ -433,7 +462,7 @@
         <v>3150</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2970</v>
       </c>
@@ -441,7 +470,7 @@
         <v>2890</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>3100</v>
       </c>
@@ -449,7 +478,7 @@
         <v>2997</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3087</v>
       </c>
@@ -457,7 +486,7 @@
         <v>3003</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2687</v>
       </c>
@@ -465,7 +494,7 @@
         <v>2645</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2860</v>
       </c>
@@ -473,7 +502,7 @@
         <v>2875</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>3430</v>
       </c>
@@ -481,7 +510,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3210</v>
       </c>
@@ -489,7 +518,7 @@
         <v>3220</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>3150</v>
       </c>
@@ -497,7 +526,7 @@
         <v>3100</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2680</v>
       </c>
@@ -505,7 +534,7 @@
         <v>2660</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2960</v>
       </c>
@@ -513,7 +542,7 @@
         <v>2910</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>3440</v>
       </c>
@@ -521,7 +550,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>3210</v>
       </c>
@@ -529,7 +558,7 @@
         <v>3140</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>3150</v>
       </c>
@@ -537,7 +566,7 @@
         <v>3115</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2687</v>
       </c>
@@ -545,7 +574,7 @@
         <v>2644</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2960</v>
       </c>
@@ -553,7 +582,7 @@
         <v>2880</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>3422</v>
       </c>
@@ -561,7 +590,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>3210</v>
       </c>
